--- a/Ratios Managment financiero cartera.xlsx
+++ b/Ratios Managment financiero cartera.xlsx
@@ -471,10 +471,10 @@
         <v>-27.69485903814259</v>
       </c>
       <c r="C2" t="n">
-        <v>13.12154801693669</v>
+        <v>13.22711375399594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7869861687510809</v>
+        <v>0.7363613274863915</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         <v>-22.03616878767582</v>
       </c>
       <c r="C3" t="n">
-        <v>5.601426223579518</v>
+        <v>5.753832588346727</v>
       </c>
       <c r="D3" t="n">
-        <v>1.795375779356496</v>
+        <v>1.679883770158126</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         <v>-17.89321789321789</v>
       </c>
       <c r="C4" t="n">
-        <v>4.858311158455593</v>
+        <v>5.046453224821095</v>
       </c>
       <c r="D4" t="n">
-        <v>3.806412262761207</v>
+        <v>3.561555333577738</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +519,10 @@
         <v>-35.41666666666664</v>
       </c>
       <c r="C5" t="n">
-        <v>22.10147903886284</v>
+        <v>22.38759750989065</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9276390698580529</v>
+        <v>-0.8679663811537338</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51.42233820263594</v>
+        <v>-51.42233820263592</v>
       </c>
       <c r="C6" t="n">
-        <v>31.97832235275</v>
+        <v>32.06608803016037</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.774774594486985</v>
+        <v>-1.660607807707122</v>
       </c>
     </row>
     <row r="7">
@@ -551,10 +551,10 @@
         <v>-50.68493150684931</v>
       </c>
       <c r="C7" t="n">
-        <v>28.50078946003612</v>
+        <v>28.67889298290301</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.409857469983894</v>
+        <v>-1.319164884195456</v>
       </c>
     </row>
     <row r="8">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.8190845529753</v>
+        <v>-19.81908455297529</v>
       </c>
       <c r="C8" t="n">
-        <v>8.284701117990618</v>
+        <v>8.220132295676139</v>
       </c>
       <c r="D8" t="n">
-        <v>1.038913949124868</v>
+        <v>0.9963853247990301</v>
       </c>
     </row>
   </sheetData>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.898773819155758</v>
+        <v>-3.821619336740572</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.842051997885231</v>
+        <v>-5.62289663898918</v>
       </c>
     </row>
     <row r="3">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.197499386042213</v>
+        <v>-2.160501653532015</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.383685579069958</v>
+        <v>-4.139641225596931</v>
       </c>
     </row>
     <row r="4">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.518361764452485</v>
+        <v>-2.499583489524759</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.878157858297478</v>
+        <v>-3.726776237424453</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5.510322570312</v>
+        <v>-5.419397739146953</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.239818467913969</v>
+        <v>-6.158687735176665</v>
       </c>
     </row>
     <row r="6">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.813150222396176</v>
+        <v>-5.766704420245894</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.188872649314594</v>
+        <v>-7.035951904874498</v>
       </c>
     </row>
     <row r="7">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.897573940302578</v>
+        <v>-6.892456384634288</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.671696730506028</v>
+        <v>-8.474458396465129</v>
       </c>
     </row>
     <row r="8">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.493941949254848</v>
+        <v>-2.481692506720684</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.333342733062532</v>
+        <v>-4.333343997716375</v>
       </c>
     </row>
   </sheetData>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.842051997885231</v>
+        <v>-5.62289663898918</v>
       </c>
     </row>
     <row r="3">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.383685579069958</v>
+        <v>-4.139641225596931</v>
       </c>
     </row>
     <row r="4">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.878157858297478</v>
+        <v>-3.726776237424453</v>
       </c>
     </row>
     <row r="5">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6.239818467913969</v>
+        <v>-6.158687735176665</v>
       </c>
     </row>
     <row r="6">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.188872649314594</v>
+        <v>-7.035951904874498</v>
       </c>
     </row>
     <row r="7">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.671696730506028</v>
+        <v>-8.474458396465129</v>
       </c>
     </row>
     <row r="8">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.333342733062532</v>
+        <v>-4.333343997716375</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0961154386402332</v>
+        <v>0.03940648738605385</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1281586846595757</v>
+        <v>0.06459754393105345</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06198718271249215</v>
+        <v>0.01860222372521537</v>
       </c>
     </row>
   </sheetData>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2821011685839323</v>
+        <v>-0.3280306718677438</v>
       </c>
       <c r="C2" t="n">
-        <v>21.79547100852908</v>
+        <v>20.39342316587516</v>
       </c>
       <c r="D2" t="n">
-        <v>39.25817639915625</v>
+        <v>37.96832301573613</v>
       </c>
     </row>
     <row r="3">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2414500782497169</v>
+        <v>0.1555099809949713</v>
       </c>
       <c r="C3" t="n">
-        <v>39.56320371120478</v>
+        <v>37.01820230288167</v>
       </c>
       <c r="D3" t="n">
-        <v>27.71983058575555</v>
+        <v>26.81502886041706</v>
       </c>
     </row>
     <row r="4">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.202148806706878</v>
+        <v>1.088512007064334</v>
       </c>
       <c r="C4" t="n">
-        <v>68.10896400900283</v>
+        <v>63.72768562245879</v>
       </c>
       <c r="D4" t="n">
-        <v>29.31310613561165</v>
+        <v>28.36853222347149</v>
       </c>
     </row>
     <row r="5">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.250585365319425</v>
+        <v>-1.251043323945238</v>
       </c>
       <c r="C5" t="n">
-        <v>-32.85388372413935</v>
+        <v>-30.74047599919472</v>
       </c>
       <c r="D5" t="n">
-        <v>52.55469478051766</v>
+        <v>50.82851445390616</v>
       </c>
     </row>
     <row r="6">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.083565477779585</v>
+        <v>-2.051541263538033</v>
       </c>
       <c r="C6" t="n">
-        <v>-91.2630594311558</v>
+        <v>-85.39233630985341</v>
       </c>
       <c r="D6" t="n">
-        <v>59.57734911726769</v>
+        <v>57.63497721725448</v>
       </c>
     </row>
     <row r="7">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.408407554095598</v>
+        <v>-1.391671874908812</v>
       </c>
       <c r="C7" t="n">
-        <v>-71.45852930055352</v>
+        <v>-66.8617818016875</v>
       </c>
       <c r="D7" t="n">
-        <v>74.07570162796588</v>
+        <v>71.64762130630797</v>
       </c>
     </row>
     <row r="8">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3839045996986532</v>
+        <v>-0.418253695384876</v>
       </c>
       <c r="C8" t="n">
-        <v>20.59032340097125</v>
+        <v>19.74744499953573</v>
       </c>
       <c r="D8" t="n">
-        <v>31.98691824967223</v>
+        <v>31.32250311100682</v>
       </c>
     </row>
   </sheetData>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3861343521774175</v>
+        <v>-0.434249474809051</v>
       </c>
       <c r="C2" t="n">
-        <v>21.79547100852908</v>
+        <v>20.39342316587516</v>
       </c>
       <c r="D2" t="n">
         <v>-27.69485903814259</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3100801018168839</v>
+        <v>0.1931935010421708</v>
       </c>
       <c r="C3" t="n">
-        <v>39.56320371120478</v>
+        <v>37.01820230288167</v>
       </c>
       <c r="D3" t="n">
         <v>-22.03616878767582</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.86434181897736</v>
+        <v>1.633712234181157</v>
       </c>
       <c r="C4" t="n">
-        <v>68.10896400900283</v>
+        <v>63.72768562245879</v>
       </c>
       <c r="D4" t="n">
         <v>-17.89321789321789</v>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.316585999000925</v>
+        <v>-2.241317249245587</v>
       </c>
       <c r="C5" t="n">
-        <v>-32.85388372413935</v>
+        <v>-30.74047599919472</v>
       </c>
       <c r="D5" t="n">
         <v>-35.41666666666664</v>
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.712757681653305</v>
+        <v>-3.536508116444235</v>
       </c>
       <c r="C6" t="n">
-        <v>-91.2630594311558</v>
+        <v>-85.39233630985341</v>
       </c>
       <c r="D6" t="n">
-        <v>-51.42233820263594</v>
+        <v>-51.42233820263592</v>
       </c>
     </row>
     <row r="7">
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.763089976532307</v>
+        <v>-2.640763658870618</v>
       </c>
       <c r="C7" t="n">
-        <v>-71.45852930055352</v>
+        <v>-66.8617818016875</v>
       </c>
       <c r="D7" t="n">
         <v>-50.68493150684931</v>
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5551126312449247</v>
+        <v>-0.5922178962915711</v>
       </c>
       <c r="C8" t="n">
-        <v>20.59032340097125</v>
+        <v>19.74744499953573</v>
       </c>
       <c r="D8" t="n">
-        <v>-19.8190845529753</v>
+        <v>-19.81908455297529</v>
       </c>
     </row>
   </sheetData>
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-21.2244416786936</v>
+        <v>-27.83465216834074</v>
       </c>
       <c r="C2" t="n">
-        <v>1.087371816530594</v>
+        <v>1.247612022688295</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5821452085233534</v>
+        <v>0.7409529318851246</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1018490388504982</v>
+        <v>-0.09982890740108846</v>
       </c>
     </row>
     <row r="3">
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2488251805736225</v>
+        <v>-0.998741514524718</v>
       </c>
       <c r="C3" t="n">
-        <v>1.006289308176101</v>
+        <v>0.9834602737881115</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9230632387986607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06651124293599574</v>
+        <v>0.04240135305517689</v>
       </c>
     </row>
     <row r="4">
@@ -1299,16 +1299,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.45416387396888</v>
+        <v>30.11157101052807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7242790635511287</v>
+        <v>0.869615228376276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4632587260551537</v>
+        <v>0.644844336817086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4865350572060271</v>
+        <v>0.3550936890295446</v>
       </c>
     </row>
     <row r="5">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-55.97682009675351</v>
+        <v>-55.91814873829902</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5844556103545644</v>
+        <v>0.65132118573955</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09384593251678129</v>
+        <v>0.1126808010051498</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.124535910117665</v>
+        <v>-0.9763028604913389</v>
       </c>
     </row>
     <row r="6">
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109.7319018802061</v>
+        <v>-106.8076081798248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4668186778771841</v>
+        <v>0.5539916421910237</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04658751271898112</v>
+        <v>0.06340281255331957</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.659133272962556</v>
+        <v>-2.134337866842784</v>
       </c>
     </row>
     <row r="7">
@@ -1356,16 +1356,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-90.64911700594287</v>
+        <v>-91.97628810929517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4850615194227648</v>
+        <v>0.6496871333993026</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03253700132129093</v>
+        <v>0.05642600834333362</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.150835998532981</v>
+        <v>-1.534738404844222</v>
       </c>
     </row>
     <row r="8">
@@ -1375,16 +1375,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.06898770053493</v>
+        <v>6.470547046930196</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.03154623582001762</v>
+        <v>0.3434600571324161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0007227399092819635</v>
+        <v>0.08251138998425155</v>
       </c>
       <c r="E8" t="n">
-        <v>3.892675220046935</v>
+        <v>-0.3814345337347938</v>
       </c>
     </row>
   </sheetData>
